--- a/Other/SBD_MEMO.xlsx
+++ b/Other/SBD_MEMO.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06006791\source\repos\SBD\Other\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7A65E-8957-4BDE-8CE4-C3F921EB81C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1125" yWindow="45" windowWidth="23940" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,198 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r>
+      <t xml:space="preserve">M1CE/SHI               6JAWL7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TSA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MZG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AE 0381</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 275Y0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 34C&gt;5180  3275BAE              2A             0 AE                        N,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +256,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105896</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6082D3-5A66-4AD8-A8E6-51A06BC60DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1409700"/>
+          <a:ext cx="8030696" cy="1457528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Other/SBD_MEMO.xlsx
+++ b/Other/SBD_MEMO.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06006791\source\repos\SBD\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7A65E-8957-4BDE-8CE4-C3F921EB81C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD6179-D5A0-48A4-A2B4-9DE5FBA60CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="45" windowWidth="23940" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31305" yWindow="1140" windowWidth="23940" windowHeight="14430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t xml:space="preserve">M1CE/SHI               6JAWL7 </t>
@@ -143,6 +144,12 @@
       <t>,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\\Desktop-6e4848r\新增資料夾\Debug\</t>
+  </si>
+  <si>
+    <t>bin\Debug\</t>
   </si>
 </sst>
 </file>
@@ -264,14 +271,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>105896</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47828</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -294,8 +301,277 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1409700"/>
+          <a:off x="0" y="506186"/>
           <a:ext cx="8030696" cy="1457528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>201805</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88633C00-2EF5-4475-96B3-2693F829C362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3897085" y="2351315"/>
+          <a:ext cx="3010320" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26339</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0D6340-45B6-4405-BAE3-579319886A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="206829" y="2313214"/>
+          <a:ext cx="3477110" cy="1733792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378313</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D535F-D3D6-43C3-BA4C-565483BA6F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="179294"/>
+          <a:ext cx="8849960" cy="5287113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>596209</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B79DDE-4401-42FD-AC5D-96168A3E5075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9099175" y="291353"/>
+          <a:ext cx="8440328" cy="4953691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>267250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B5C222-3F0F-4BDE-92FF-0488CA0D60C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9256059" y="6073588"/>
+          <a:ext cx="7954485" cy="4629796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206262</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837ED71A-6232-4A80-8BA7-5F69D7255F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123265" y="6286500"/>
+          <a:ext cx="8554644" cy="4706007"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,4 +865,32 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A29CF-80B7-4F4A-A07A-C9A999F87A39}">
+  <dimension ref="B30:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>